--- a/model/results/experiment1/repeated/results.xlsx
+++ b/model/results/experiment1/repeated/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xav/Documents/UIUC/Summer/Project/results20230228/experiment1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xav/Downloads/results/experiment1/repeated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A8D1079-A6D0-4947-90B2-F5E28BAE7F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E88D9F-41BA-7D40-B791-7E6636915CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{8D81685E-E069-1145-8EA2-1F04F78B8216}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
   <si>
     <t>model</t>
-  </si>
-  <si>
-    <t>ratio</t>
   </si>
   <si>
     <t>accuracy</t>
@@ -63,6 +60,12 @@
   </si>
   <si>
     <t>tree</t>
+  </si>
+  <si>
+    <t>auc</t>
+  </si>
+  <si>
+    <t>ratio</t>
   </si>
 </sst>
 </file>
@@ -423,632 +426,725 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE73A3A-EA60-8A43-AED3-8C5299DDB403}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>141</v>
       </c>
       <c r="C2">
-        <v>0.61494300000000002</v>
+        <v>0.56896599999999997</v>
       </c>
       <c r="D2">
-        <v>0.83664000000000005</v>
+        <v>0.42169499999999999</v>
       </c>
       <c r="E2">
-        <v>0.37357200000000002</v>
+        <v>0.62963000000000002</v>
       </c>
       <c r="F2">
-        <v>0.79544599999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.55766000000000004</v>
+      </c>
+      <c r="G2">
+        <v>0.595526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>283</v>
       </c>
       <c r="C3">
-        <v>0.70467800000000003</v>
+        <v>0.53508800000000001</v>
       </c>
       <c r="D3">
-        <v>0.88994700000000004</v>
+        <v>0.38801200000000002</v>
       </c>
       <c r="E3">
-        <v>0.44927800000000001</v>
+        <v>0.54732800000000004</v>
       </c>
       <c r="F3">
-        <v>0.83784400000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.59702599999999995</v>
+      </c>
+      <c r="G3">
+        <v>0.57180900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>425</v>
       </c>
       <c r="C4">
-        <v>0.73333300000000001</v>
+        <v>0.69019600000000003</v>
       </c>
       <c r="D4">
-        <v>0.96758200000000005</v>
+        <v>0.637104</v>
       </c>
       <c r="E4">
-        <v>0.53474299999999997</v>
+        <v>0.70308000000000004</v>
       </c>
       <c r="F4">
-        <v>0.91110100000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.70891199999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.70973900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>567</v>
       </c>
       <c r="C5">
-        <v>0.76608200000000004</v>
+        <v>0.69882999999999995</v>
       </c>
       <c r="D5">
-        <v>0.91809099999999999</v>
+        <v>0.72439299999999995</v>
       </c>
       <c r="E5">
-        <v>0.58545000000000003</v>
+        <v>0.79341200000000001</v>
       </c>
       <c r="F5">
-        <v>0.92320199999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.77724499999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.75872099999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>709</v>
       </c>
       <c r="C6">
-        <v>0.786385</v>
+        <v>0.64788699999999999</v>
       </c>
       <c r="D6">
-        <v>0.94869700000000001</v>
+        <v>0.58077999999999996</v>
       </c>
       <c r="E6">
-        <v>0.59947399999999995</v>
+        <v>0.649003</v>
       </c>
       <c r="F6">
-        <v>0.93524099999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.72923400000000005</v>
+      </c>
+      <c r="G6">
+        <v>0.70071000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>851</v>
       </c>
       <c r="C7">
-        <v>0.80799200000000004</v>
+        <v>0.80506800000000001</v>
       </c>
       <c r="D7">
-        <v>0.95750800000000003</v>
+        <v>0.81696299999999999</v>
       </c>
       <c r="E7">
-        <v>0.65420699999999998</v>
+        <v>0.80003000000000002</v>
       </c>
       <c r="F7">
-        <v>0.94575399999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.88599600000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.88856599999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>993</v>
       </c>
       <c r="C8">
-        <v>0.79564500000000005</v>
+        <v>0.721943</v>
       </c>
       <c r="D8">
-        <v>0.95206000000000002</v>
+        <v>0.64435699999999996</v>
       </c>
       <c r="E8">
-        <v>0.63059600000000005</v>
+        <v>0.66314200000000001</v>
       </c>
       <c r="F8">
-        <v>0.93758600000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.81425999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.82299299999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>1135</v>
       </c>
       <c r="C9">
-        <v>0.82011699999999998</v>
+        <v>0.73274600000000001</v>
       </c>
       <c r="D9">
-        <v>0.95716000000000001</v>
+        <v>0.70981700000000003</v>
       </c>
       <c r="E9">
-        <v>0.66112899999999997</v>
+        <v>0.81356399999999995</v>
       </c>
       <c r="F9">
-        <v>0.94380799999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.77395099999999994</v>
+      </c>
+      <c r="G9">
+        <v>0.75637299999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>1277</v>
       </c>
       <c r="C10">
-        <v>0.81640599999999997</v>
+        <v>0.77734400000000003</v>
       </c>
       <c r="D10">
-        <v>0.95061600000000002</v>
+        <v>0.77369299999999996</v>
       </c>
       <c r="E10">
-        <v>0.66025</v>
+        <v>0.79090400000000005</v>
       </c>
       <c r="F10">
-        <v>0.94208800000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.87611300000000003</v>
+      </c>
+      <c r="G10">
+        <v>0.86637699999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>1419</v>
       </c>
       <c r="C11">
-        <v>0.81572800000000001</v>
+        <v>0.762324</v>
       </c>
       <c r="D11">
-        <v>0.95762899999999995</v>
+        <v>0.750162</v>
       </c>
       <c r="E11">
-        <v>0.67209200000000002</v>
+        <v>0.84779800000000005</v>
       </c>
       <c r="F11">
-        <v>0.95007900000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.81842099999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.80513900000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>141</v>
       </c>
       <c r="C12">
-        <v>0.61494300000000002</v>
+        <v>0.59770100000000004</v>
       </c>
       <c r="D12">
-        <v>0.83664000000000005</v>
+        <v>0.634606</v>
       </c>
       <c r="E12">
-        <v>0.37357200000000002</v>
+        <v>0.61037600000000003</v>
       </c>
       <c r="F12">
-        <v>0.79544599999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.67524200000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.722275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>283</v>
       </c>
       <c r="C13">
-        <v>0.70467800000000003</v>
+        <v>0.64912300000000001</v>
       </c>
       <c r="D13">
-        <v>0.88994700000000004</v>
+        <v>0.65187499999999998</v>
       </c>
       <c r="E13">
-        <v>0.44927800000000001</v>
+        <v>0.66264699999999999</v>
       </c>
       <c r="F13">
-        <v>0.83784400000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.738263</v>
+      </c>
+      <c r="G13">
+        <v>0.73668999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>425</v>
       </c>
       <c r="C14">
-        <v>0.73333300000000001</v>
+        <v>0.70196099999999995</v>
       </c>
       <c r="D14">
-        <v>0.96758200000000005</v>
+        <v>0.80949599999999999</v>
       </c>
       <c r="E14">
-        <v>0.53474299999999997</v>
+        <v>0.60036999999999996</v>
       </c>
       <c r="F14">
-        <v>0.91110100000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.79793400000000003</v>
+      </c>
+      <c r="G14">
+        <v>0.83657999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>567</v>
       </c>
       <c r="C15">
-        <v>0.76608200000000004</v>
+        <v>0.75584799999999996</v>
       </c>
       <c r="D15">
-        <v>0.91809099999999999</v>
+        <v>0.75486200000000003</v>
       </c>
       <c r="E15">
-        <v>0.58545000000000003</v>
+        <v>0.75832200000000005</v>
       </c>
       <c r="F15">
-        <v>0.92320199999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.83405300000000004</v>
+      </c>
+      <c r="G15">
+        <v>0.83732300000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>709</v>
       </c>
       <c r="C16">
-        <v>0.786385</v>
+        <v>0.74060999999999999</v>
       </c>
       <c r="D16">
-        <v>0.94869700000000001</v>
+        <v>0.745278</v>
       </c>
       <c r="E16">
-        <v>0.59947399999999995</v>
+        <v>0.74321899999999996</v>
       </c>
       <c r="F16">
-        <v>0.93524099999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.84135000000000004</v>
+      </c>
+      <c r="G16">
+        <v>0.85185699999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>851</v>
       </c>
       <c r="C17">
-        <v>0.80799200000000004</v>
+        <v>0.78167600000000004</v>
       </c>
       <c r="D17">
-        <v>0.95750800000000003</v>
+        <v>0.80161300000000002</v>
       </c>
       <c r="E17">
-        <v>0.65420699999999998</v>
+        <v>0.76126300000000002</v>
       </c>
       <c r="F17">
-        <v>0.94575399999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.87068100000000004</v>
+      </c>
+      <c r="G17">
+        <v>0.88458899999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>993</v>
       </c>
       <c r="C18">
-        <v>0.79564500000000005</v>
+        <v>0.768007</v>
       </c>
       <c r="D18">
-        <v>0.95206000000000002</v>
+        <v>0.77236199999999999</v>
       </c>
       <c r="E18">
-        <v>0.63059600000000005</v>
+        <v>0.77372600000000002</v>
       </c>
       <c r="F18">
-        <v>0.93758600000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.86034600000000006</v>
+      </c>
+      <c r="G18">
+        <v>0.87270999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>1135</v>
       </c>
       <c r="C19">
-        <v>0.82011699999999998</v>
+        <v>0.77239400000000002</v>
       </c>
       <c r="D19">
-        <v>0.95716000000000001</v>
+        <v>0.78685499999999997</v>
       </c>
       <c r="E19">
-        <v>0.66112899999999997</v>
+        <v>0.73372700000000002</v>
       </c>
       <c r="F19">
-        <v>0.94380799999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.86182300000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.867753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>1277</v>
       </c>
       <c r="C20">
-        <v>0.81640599999999997</v>
+        <v>0.78971400000000003</v>
       </c>
       <c r="D20">
-        <v>0.95061600000000002</v>
+        <v>0.79463499999999998</v>
       </c>
       <c r="E20">
-        <v>0.66025</v>
+        <v>0.76838200000000001</v>
       </c>
       <c r="F20">
-        <v>0.94208800000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.870749</v>
+      </c>
+      <c r="G20">
+        <v>0.87622699999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>1419</v>
       </c>
       <c r="C21">
-        <v>0.81572800000000001</v>
+        <v>0.79108000000000001</v>
       </c>
       <c r="D21">
-        <v>0.95762899999999995</v>
+        <v>0.80395899999999998</v>
       </c>
       <c r="E21">
-        <v>0.67209200000000002</v>
+        <v>0.788794</v>
       </c>
       <c r="F21">
-        <v>0.95007900000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.88376200000000005</v>
+      </c>
+      <c r="G21">
+        <v>0.89217400000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>141</v>
       </c>
       <c r="C22">
-        <v>0.61494300000000002</v>
+        <v>0.67241399999999996</v>
       </c>
       <c r="D22">
-        <v>0.83664000000000005</v>
+        <v>0.73509100000000005</v>
       </c>
       <c r="E22">
-        <v>0.37357200000000002</v>
+        <v>0.61222799999999999</v>
       </c>
       <c r="F22">
-        <v>0.79544599999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.77757299999999996</v>
+      </c>
+      <c r="G22">
+        <v>0.81631399999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>283</v>
       </c>
       <c r="C23">
-        <v>0.70467800000000003</v>
+        <v>0.745614</v>
       </c>
       <c r="D23">
-        <v>0.88994700000000004</v>
+        <v>0.78639700000000001</v>
       </c>
       <c r="E23">
-        <v>0.44927800000000001</v>
+        <v>0.65475300000000003</v>
       </c>
       <c r="F23">
-        <v>0.83784400000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.82807299999999995</v>
+      </c>
+      <c r="G23">
+        <v>0.81525199999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>425</v>
       </c>
       <c r="C24">
-        <v>0.73333300000000001</v>
+        <v>0.78431399999999996</v>
       </c>
       <c r="D24">
-        <v>0.96758200000000005</v>
+        <v>0.863927</v>
       </c>
       <c r="E24">
-        <v>0.53474299999999997</v>
+        <v>0.727163</v>
       </c>
       <c r="F24">
-        <v>0.91110100000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.89410199999999995</v>
+      </c>
+      <c r="G24">
+        <v>0.91484500000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>567</v>
       </c>
       <c r="C25">
-        <v>0.76608200000000004</v>
+        <v>0.81578899999999999</v>
       </c>
       <c r="D25">
-        <v>0.91809099999999999</v>
+        <v>0.85350700000000002</v>
       </c>
       <c r="E25">
-        <v>0.58545000000000003</v>
+        <v>0.76334000000000002</v>
       </c>
       <c r="F25">
-        <v>0.92320199999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.91156499999999996</v>
+      </c>
+      <c r="G25">
+        <v>0.91492700000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>709</v>
       </c>
       <c r="C26">
-        <v>0.786385</v>
+        <v>0.82746500000000001</v>
       </c>
       <c r="D26">
-        <v>0.94869700000000001</v>
+        <v>0.86549200000000004</v>
       </c>
       <c r="E26">
-        <v>0.59947399999999995</v>
+        <v>0.77488400000000002</v>
       </c>
       <c r="F26">
-        <v>0.93524099999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.93262999999999996</v>
+      </c>
+      <c r="G26">
+        <v>0.93133500000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>851</v>
       </c>
       <c r="C27">
-        <v>0.80799200000000004</v>
+        <v>0.84308000000000005</v>
       </c>
       <c r="D27">
-        <v>0.95750800000000003</v>
+        <v>0.89842200000000005</v>
       </c>
       <c r="E27">
-        <v>0.65420699999999998</v>
+        <v>0.78072399999999997</v>
       </c>
       <c r="F27">
-        <v>0.94575399999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.94096900000000006</v>
+      </c>
+      <c r="G27">
+        <v>0.94441299999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>993</v>
       </c>
       <c r="C28">
-        <v>0.79564500000000005</v>
+        <v>0.83668299999999995</v>
       </c>
       <c r="D28">
-        <v>0.95206000000000002</v>
+        <v>0.88108299999999995</v>
       </c>
       <c r="E28">
-        <v>0.63059600000000005</v>
+        <v>0.78742599999999996</v>
       </c>
       <c r="F28">
-        <v>0.93758600000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.93121500000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.93588099999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>1135</v>
       </c>
       <c r="C29">
-        <v>0.82011699999999998</v>
+        <v>0.84361200000000003</v>
       </c>
       <c r="D29">
-        <v>0.95716000000000001</v>
+        <v>0.87572700000000003</v>
       </c>
       <c r="E29">
-        <v>0.66112899999999997</v>
+        <v>0.79288099999999995</v>
       </c>
       <c r="F29">
-        <v>0.94380799999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.93584999999999996</v>
+      </c>
+      <c r="G29">
+        <v>0.93530000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>1277</v>
       </c>
       <c r="C30">
-        <v>0.81640599999999997</v>
+        <v>0.84309900000000004</v>
       </c>
       <c r="D30">
-        <v>0.95061600000000002</v>
+        <v>0.88970700000000003</v>
       </c>
       <c r="E30">
-        <v>0.66025</v>
+        <v>0.77529000000000003</v>
       </c>
       <c r="F30">
-        <v>0.94208800000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.93779500000000005</v>
+      </c>
+      <c r="G30">
+        <v>0.93683499999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>1419</v>
       </c>
       <c r="C31">
-        <v>0.81572800000000001</v>
+        <v>0.84154899999999999</v>
       </c>
       <c r="D31">
-        <v>0.95762899999999995</v>
+        <v>0.88539400000000001</v>
       </c>
       <c r="E31">
-        <v>0.67209200000000002</v>
+        <v>0.79475300000000004</v>
       </c>
       <c r="F31">
-        <v>0.95007900000000001</v>
+        <v>0.94268700000000005</v>
+      </c>
+      <c r="G31">
+        <v>0.94625899999999996</v>
       </c>
     </row>
   </sheetData>
